--- a/biology/Botanique/Capparis/Capparis.xlsx
+++ b/biology/Botanique/Capparis/Capparis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capparis est un genre de végétaux de la famille des Capparaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des arbustes, de petits arbres ou des lianes, glabres, lépidotes ou pubescents.
-Les feuilles alternes, simples sont en général coriaces[1],[2], à marge entière et avec un pétiole épaissi à l'apex.
+Les feuilles alternes, simples sont en général coriaces à marge entière et avec un pétiole épaissi à l'apex.
 La fleur blanche ou mauve comporte 4 (2+2) sépales, souvent avec une glande nectarifère à la base, 4 pétales et des étamines en nombre variable (de 7 à 120).
 Le fruit est généralement indéhiscent.
 </t>
@@ -545,7 +559,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Capparis est bien connu en Europe par le câprier commun, Capparis spinosa, arbrisseau méditerranéen cultivé pour ses boutons floraux consommés sous le nom de câpres et ses fruits consommés sous le nom de câprons.
 </t>
@@ -576,9 +592,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon eFloras[2], il existerait entre 250 et 400 espèces de Capparis : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon eFloras, il existerait entre 250 et 400 espèces de Capparis : 
 Capparis arborea (F.Muell.) Maiden –
 Capparis baducca L., Mabouya
 Capparis crotonantha
@@ -610,7 +628,7 @@
 Capparis prisca
 Capparis pyrifolia
 Capparis roxburghii
-Capparis sandwichiana DC.(Hawaiʻi)[3]
+Capparis sandwichiana DC.(Hawaiʻi)
 Capparis sepiaria L.
 Capparis sepiaria var. citrifolia (Lam.) Tölken
 Capparis sepiaria var. subglabra (Oliv.) De Wolf
